--- a/output/report_project.xlsx
+++ b/output/report_project.xlsx
@@ -1149,7 +1149,9 @@
       <c r="D8" t="n">
         <v>10.5</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>15.5</v>
+      </c>
       <c r="F8" t="n">
         <v>10.5</v>
       </c>
@@ -1189,9 +1191,11 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15.5</v>
+      </c>
       <c r="V8" t="n">
         <v>8.5</v>
       </c>
@@ -1222,10 +1226,10 @@
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>247.5</v>
+        <v>277.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>20000</v>
@@ -1234,13 +1238,13 @@
         <v>17500</v>
       </c>
       <c r="AM8" t="n">
-        <v>440000</v>
+        <v>480000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4331250</v>
+        <v>4856250</v>
       </c>
       <c r="AO8" t="n">
-        <v>4351250</v>
+        <v>4876250</v>
       </c>
     </row>
     <row r="9">
@@ -1924,7 +1928,7 @@
         <v>15.5</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
         <v>11.5</v>
@@ -1941,7 +1945,9 @@
       <c r="M17" t="n">
         <v>10.5</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>15.5</v>
+      </c>
       <c r="O17" t="n">
         <v>8.5</v>
       </c>
@@ -1952,7 +1958,9 @@
         <v>14</v>
       </c>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>15.5</v>
+      </c>
       <c r="T17" t="n">
         <v>10.5</v>
       </c>
@@ -1984,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -1993,10 +2001,10 @@
         <v>10.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>20000</v>
@@ -2005,13 +2013,13 @@
         <v>17500</v>
       </c>
       <c r="AM17" t="n">
-        <v>460000</v>
+        <v>500000</v>
       </c>
       <c r="AN17" t="n">
-        <v>4200000</v>
+        <v>4865000</v>
       </c>
       <c r="AO17" t="n">
-        <v>4220000</v>
+        <v>4885000</v>
       </c>
     </row>
     <row r="18">
@@ -2839,14 +2847,14 @@
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="n">
-        <v>205</v>
+        <v>205.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -2861,10 +2869,10 @@
         <v>460000</v>
       </c>
       <c r="AN26" t="n">
-        <v>3587500</v>
+        <v>3596250</v>
       </c>
       <c r="AO26" t="n">
-        <v>3607500</v>
+        <v>3616250</v>
       </c>
     </row>
     <row r="27">
@@ -3330,7 +3338,7 @@
         <v>14</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
@@ -3377,7 +3385,7 @@
         <v>10.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>295</v>
+        <v>291.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>27</v>
@@ -3392,10 +3400,10 @@
         <v>540000</v>
       </c>
       <c r="AN31" t="n">
-        <v>5162500</v>
+        <v>5101250</v>
       </c>
       <c r="AO31" t="n">
-        <v>5182500</v>
+        <v>5121250</v>
       </c>
     </row>
     <row r="32">
